--- a/demo data/HDX-MS raw data/mzML convert generator.xlsx
+++ b/demo data/HDX-MS raw data/mzML convert generator.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubordeauxfr-my.sharepoint.com/personal/eric_largy_u-bordeaux_fr/Documents/Git/OligoR_reboot/demo data/HDX-MS raw data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{E099697F-4EDF-4311-9AEA-37C88FF1C264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57FAC051-14C7-4364-839E-909674732CF8}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{E099697F-4EDF-4311-9AEA-37C88FF1C264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C420AB24-BECD-4C49-88EF-5E62FCD59A50}"/>
   <bookViews>
-    <workbookView xWindow="39765" yWindow="45" windowWidth="25485" windowHeight="15615" activeTab="1" xr2:uid="{832DC8D8-CB75-4467-96A4-FC9121A9F707}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="21840" activeTab="2" xr2:uid="{832DC8D8-CB75-4467-96A4-FC9121A9F707}"/>
   </bookViews>
   <sheets>
     <sheet name="23TAG-PhenDC3" sheetId="1" r:id="rId1"/>
     <sheet name="23TAG" sheetId="2" r:id="rId2"/>
+    <sheet name="T30177-TT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="22">
   <si>
     <t>tube</t>
   </si>
@@ -80,12 +81,33 @@
   <si>
     <t>ref</t>
   </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +119,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,14 +150,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -236,11 +309,11 @@
     </tableColumn>
     <tableColumn id="7" xr3:uid="{BA7CC746-A465-4A7D-8A3F-0061FD52C8BD}" name="start.mz"/>
     <tableColumn id="8" xr3:uid="{F3393A89-97F2-4B7E-A054-ACA25F9187DD}" name="end.mz"/>
-    <tableColumn id="6" xr3:uid="{F8E6BCDC-E128-4319-83CB-9254D864C73A}" name="pt" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{631509AD-9B5D-4D10-82C8-79665AAC8E3D}" name="start.s" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{F8E6BCDC-E128-4319-83CB-9254D864C73A}" name="pt" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{631509AD-9B5D-4D10-82C8-79665AAC8E3D}" name="start.s" dataDxfId="8">
       <calculatedColumnFormula>I6*60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C5B4E67B-26A5-44BD-9717-0ECB44E6A769}" name="end.s" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{C5B4E67B-26A5-44BD-9717-0ECB44E6A769}" name="end.s" dataDxfId="7">
       <calculatedColumnFormula>J6*60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -259,11 +332,34 @@
     </tableColumn>
     <tableColumn id="7" xr3:uid="{0B7A98A3-E4CD-4F25-86F1-C773704BAF27}" name="start.mz"/>
     <tableColumn id="8" xr3:uid="{862BD483-61A0-4468-B386-0E30C9CCE61F}" name="end.mz"/>
-    <tableColumn id="6" xr3:uid="{1DBC6E8D-8193-4A4D-9E00-2FFF8E3418F6}" name="pt" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{BDD30EE1-32BE-4E72-B432-776CB76893AC}" name="start.s" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{1DBC6E8D-8193-4A4D-9E00-2FFF8E3418F6}" name="pt" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{BDD30EE1-32BE-4E72-B432-776CB76893AC}" name="start.s" dataDxfId="5">
       <calculatedColumnFormula>G7*60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{765C5F9A-C3EE-4AB4-B02C-DDCB045ECD83}" name="end.s" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{765C5F9A-C3EE-4AB4-B02C-DDCB045ECD83}" name="end.s" dataDxfId="4">
+      <calculatedColumnFormula>H7*60</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CF2EEE27-1C21-4273-AF01-46759B6DC9DF}" name="Table134" displayName="Table134" ref="F6:M28" totalsRowShown="0">
+  <autoFilter ref="F6:M28" xr:uid="{82A29707-108A-4827-A26A-6ABB22E4E27F}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{2D716382-00C2-43F6-AE8A-94123DBA7B83}" name="tube" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{57A56B7F-C16C-4DC2-826D-3B7F3D2F02C8}" name="start.min"/>
+    <tableColumn id="3" xr3:uid="{1C08E95C-B92A-4F09-986A-E9827F5D9FD2}" name="end.min">
+      <calculatedColumnFormula>G7+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{B094506A-2271-473F-A4D3-2500051F5B16}" name="start.mz"/>
+    <tableColumn id="8" xr3:uid="{7A217C86-9A8D-4F07-BD82-A210756B4F12}" name="end.mz"/>
+    <tableColumn id="6" xr3:uid="{A21BB671-1A4E-4501-A830-EA9AC0696EB8}" name="pt" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{1BC31107-15D7-4D1A-893E-80885DAC11A2}" name="start.s" dataDxfId="2">
+      <calculatedColumnFormula>G7*60</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{77834B75-10E9-4BEF-B346-319DCD321FAA}" name="end.s" dataDxfId="1">
       <calculatedColumnFormula>H7*60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1259,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDC913D-3188-40FF-87DE-F74EF846F5B5}">
   <dimension ref="F6:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -1936,4 +2032,691 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2DF8B2-7C82-475F-8B80-4F6CF5F515AA}">
+  <dimension ref="F6:M28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <f>G7+1</f>
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>1500</v>
+      </c>
+      <c r="J7">
+        <v>2200</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="1">
+        <f>G7*60</f>
+        <v>720</v>
+      </c>
+      <c r="M7" s="1">
+        <f>H7*60</f>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="8" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <f>G8+1</f>
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>1500</v>
+      </c>
+      <c r="J8">
+        <v>2200</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <f>G8*60</f>
+        <v>420</v>
+      </c>
+      <c r="M8" s="1">
+        <f>H8*60</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="9" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>18.5</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H28" si="0">G9+1</f>
+        <v>19.5</v>
+      </c>
+      <c r="I9">
+        <v>1500</v>
+      </c>
+      <c r="J9">
+        <v>2200</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" ref="L9:M28" si="1">G9*60</f>
+        <v>1110</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="1"/>
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="10" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>21.5</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="I10">
+        <v>1500</v>
+      </c>
+      <c r="J10">
+        <v>2200</v>
+      </c>
+      <c r="K10" s="1">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="1"/>
+        <v>1290</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="1"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="11" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>23.5</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>24.5</v>
+      </c>
+      <c r="I11">
+        <v>1500</v>
+      </c>
+      <c r="J11">
+        <v>2200</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="1"/>
+        <v>1410</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="1"/>
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="12" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>1500</v>
+      </c>
+      <c r="J12">
+        <v>2200</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>1500</v>
+      </c>
+      <c r="J13">
+        <v>2200</v>
+      </c>
+      <c r="K13" s="1">
+        <v>6</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>8.5</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="I14">
+        <v>1500</v>
+      </c>
+      <c r="J14">
+        <v>2200</v>
+      </c>
+      <c r="K14" s="1">
+        <v>7</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="1"/>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="15" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>1500</v>
+      </c>
+      <c r="J15">
+        <v>2200</v>
+      </c>
+      <c r="K15" s="1">
+        <v>8</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16">
+        <v>5.5</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="I16">
+        <v>1500</v>
+      </c>
+      <c r="J16">
+        <v>2200</v>
+      </c>
+      <c r="K16" s="1">
+        <v>9</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17">
+        <v>9.5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="I17">
+        <v>1500</v>
+      </c>
+      <c r="J17">
+        <v>2200</v>
+      </c>
+      <c r="K17" s="1">
+        <v>10</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="1"/>
+        <v>570</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="1"/>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>1500</v>
+      </c>
+      <c r="J18">
+        <v>2200</v>
+      </c>
+      <c r="K18" s="1">
+        <v>11</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>6.5</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="I19">
+        <v>1500</v>
+      </c>
+      <c r="J19">
+        <v>2200</v>
+      </c>
+      <c r="K19" s="1">
+        <v>12</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <v>11.25</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>12.25</v>
+      </c>
+      <c r="I20">
+        <v>1500</v>
+      </c>
+      <c r="J20">
+        <v>2200</v>
+      </c>
+      <c r="K20" s="1">
+        <v>13</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="1"/>
+        <v>675</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="1"/>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="21" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>3.5</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="I21">
+        <v>1500</v>
+      </c>
+      <c r="J21">
+        <v>2200</v>
+      </c>
+      <c r="K21" s="1">
+        <v>14</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>1500</v>
+      </c>
+      <c r="J22">
+        <v>2200</v>
+      </c>
+      <c r="K22" s="1">
+        <v>15</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="23" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23">
+        <v>13.5</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
+      <c r="I23">
+        <v>1500</v>
+      </c>
+      <c r="J23">
+        <v>2200</v>
+      </c>
+      <c r="K23" s="1">
+        <v>16</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="1"/>
+        <v>810</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="1"/>
+        <v>870</v>
+      </c>
+    </row>
+    <row r="24" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>4.5</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="I24">
+        <v>1500</v>
+      </c>
+      <c r="J24">
+        <v>2200</v>
+      </c>
+      <c r="K24" s="1">
+        <v>17</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>11</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I25">
+        <v>1500</v>
+      </c>
+      <c r="J25">
+        <v>2200</v>
+      </c>
+      <c r="K25" s="1">
+        <v>18</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="1"/>
+        <v>660</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="26" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>1500</v>
+      </c>
+      <c r="J26">
+        <v>2200</v>
+      </c>
+      <c r="K26" s="1">
+        <v>19</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27">
+        <v>11.5</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="I27">
+        <v>1500</v>
+      </c>
+      <c r="J27">
+        <v>2200</v>
+      </c>
+      <c r="K27" s="1">
+        <v>20</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="1"/>
+        <v>690</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28">
+        <v>32</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="I28">
+        <v>1500</v>
+      </c>
+      <c r="J28">
+        <v>2200</v>
+      </c>
+      <c r="K28" s="1">
+        <v>21</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="1"/>
+        <v>1920</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="1"/>
+        <v>1980</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F8:F28" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>